--- a/학습자료/단답형/국어_암기자료_3주차.xlsx
+++ b/학습자료/단답형/국어_암기자료_3주차.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113">
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
